--- a/artfynd/A 18705-2022.xlsx
+++ b/artfynd/A 18705-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1944815</v>
+        <v>1997235</v>
       </c>
       <c r="B2" t="n">
-        <v>78568</v>
+        <v>78569</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -716,17 +716,17 @@
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Öster Brassberget, mellan kraftledningar (väst om Bergtjärn)., Hls</t>
+          <t>Brassbergsmyran, Hls</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>539106.742630115</v>
+        <v>539054.5526221115</v>
       </c>
       <c r="R2" t="n">
-        <v>6896898.74913759</v>
+        <v>6896965.355580899</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2009-09-02</t>
+          <t>2012-09-26</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2009-09-02</t>
+          <t>2012-09-26</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -779,12 +779,12 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>Fint lövbrännebestånd</t>
+          <t>Grandominerad men lövrik skog</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>Två sälgar, rikligt med lunglav</t>
+          <t>Sälglåga, fälld nära kraftledningsgata</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -795,7 +795,7 @@
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Lars-Ove Wikars, Bengt Oldhammer</t>
+          <t>Lars-Ove Wikars</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
@@ -806,10 +806,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1997235</v>
+        <v>2072910</v>
       </c>
       <c r="B3" t="n">
-        <v>78569</v>
+        <v>78596</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -818,25 +818,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -905,7 +905,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>Grandominerad men lövrik skog</t>
+          <t>Grandominerad men lövrik skog, intill ledningsgata</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
@@ -932,10 +932,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2072910</v>
+        <v>1997234</v>
       </c>
       <c r="B4" t="n">
-        <v>78596</v>
+        <v>78569</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -944,25 +944,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>539054.5526221115</v>
+        <v>539060.7095074151</v>
       </c>
       <c r="R4" t="n">
-        <v>6896965.355580899</v>
+        <v>6896958.425786681</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1020,6 +1020,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
+        </is>
+      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
@@ -1031,12 +1036,12 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>Grandominerad men lövrik skog, intill ledningsgata</t>
+          <t>Grandominerad men lövrik skog</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>Sälglåga, fälld nära kraftledningsgata</t>
+          <t>Sälglåga utan bark</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1058,10 +1063,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1997234</v>
+        <v>258589</v>
       </c>
       <c r="B5" t="n">
-        <v>78569</v>
+        <v>89952</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1070,38 +1075,42 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6458</v>
+        <v>760</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Brassbergsmyran, Hls</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>539060.7095074151</v>
+        <v>538948.1891960427</v>
       </c>
       <c r="R5" t="n">
-        <v>6896958.425786681</v>
+        <v>6897028.067720329</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1146,11 +1155,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
-        </is>
-      </c>
       <c r="AD5" t="b">
         <v>0</v>
       </c>
@@ -1162,12 +1166,12 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>Grandominerad men lövrik skog</t>
+          <t>Grandominerad skog med klen asp</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>Sälglåga utan bark</t>
+          <t>Sälg 15 cm</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1189,7 +1193,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1997233</v>
+        <v>107569746</v>
       </c>
       <c r="B6" t="n">
         <v>78569</v>
@@ -1225,17 +1229,17 @@
       <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Brassbergsmyran, Hls</t>
+          <t>Brassberget, Hls</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>539081.7084854279</v>
+        <v>538923.8166075038</v>
       </c>
       <c r="R6" t="n">
-        <v>6896961.46973133</v>
+        <v>6897033.853634592</v>
       </c>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1259,22 +1263,22 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2012-09-26</t>
+          <t>2023-03-23</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:46</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2012-09-26</t>
+          <t>2023-03-23</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:46</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1285,37 +1289,23 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>Grandominerad men lövrik skog</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>Asp 30-40 cm</t>
-        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Lars-Ove Wikars</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Lars-Ove Wikars</t>
-        </is>
-      </c>
-      <c r="AY6" t="inlineStr">
-        <is>
-          <t>Åtgärdsprogram för hotade arter</t>
-        </is>
-      </c>
+          <t>Isak Vahlström, Aron Dynesius</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>258589</v>
+        <v>107569747</v>
       </c>
       <c r="B7" t="n">
         <v>89952</v>
@@ -1348,24 +1338,20 @@
           <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Brassbergsmyran, Hls</t>
+          <t>Brassberget, Hls</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>538948.1891960427</v>
+        <v>538943.8211877134</v>
       </c>
       <c r="R7" t="n">
-        <v>6897028.067720329</v>
+        <v>6897042.019234723</v>
       </c>
       <c r="S7" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1389,22 +1375,22 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2012-09-26</t>
+          <t>2023-03-23</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:44</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2012-09-26</t>
+          <t>2023-03-23</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:44</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1415,40 +1401,26 @@
       </c>
       <c r="AG7" t="b">
         <v>0</v>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>Grandominerad skog med klen asp</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>Sälg 15 cm</t>
-        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Lars-Ove Wikars</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Lars-Ove Wikars</t>
-        </is>
-      </c>
-      <c r="AY7" t="inlineStr">
-        <is>
-          <t>Åtgärdsprogram för hotade arter</t>
-        </is>
-      </c>
+          <t>Isak Vahlström, Aron Dynesius</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>107569746</v>
+        <v>107569739</v>
       </c>
       <c r="B8" t="n">
-        <v>78569</v>
+        <v>78503</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1457,25 +1429,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6458</v>
+        <v>6456</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1485,10 +1457,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>538923.8166075038</v>
+        <v>538791.4637094707</v>
       </c>
       <c r="R8" t="n">
-        <v>6897033.853634592</v>
+        <v>6897080.867268534</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1520,7 +1492,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>15:46</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1530,7 +1502,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>15:46</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1557,10 +1529,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>107569747</v>
+        <v>107569745</v>
       </c>
       <c r="B9" t="n">
-        <v>89952</v>
+        <v>78569</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1569,25 +1541,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>760</v>
+        <v>6458</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1597,10 +1569,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>538943.8211877134</v>
+        <v>538918.6757011655</v>
       </c>
       <c r="R9" t="n">
-        <v>6897042.019234723</v>
+        <v>6897033.794253739</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1632,7 +1604,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>15:44</t>
+          <t>15:47</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1642,7 +1614,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>15:44</t>
+          <t>15:47</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1669,10 +1641,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>107569755</v>
+        <v>107569748</v>
       </c>
       <c r="B10" t="n">
-        <v>77506</v>
+        <v>78569</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1685,21 +1657,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1709,10 +1681,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>539130.1126433859</v>
+        <v>538977.3541966603</v>
       </c>
       <c r="R10" t="n">
-        <v>6896939.160931129</v>
+        <v>6897012.069211906</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1744,7 +1716,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>15:41</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1754,7 +1726,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>15:41</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1781,10 +1753,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>107569739</v>
+        <v>107569710</v>
       </c>
       <c r="B11" t="n">
-        <v>78503</v>
+        <v>56395</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1793,38 +1765,46 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6456</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Brassberget, Hls</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>538791.4637094707</v>
+        <v>539062.7478428842</v>
       </c>
       <c r="R11" t="n">
-        <v>6897080.867268534</v>
+        <v>6896863.232230947</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1856,7 +1836,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:31</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1866,7 +1846,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:31</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1893,10 +1873,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>107569745</v>
+        <v>107569749</v>
       </c>
       <c r="B12" t="n">
-        <v>78569</v>
+        <v>77506</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1909,21 +1889,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1933,10 +1913,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>538918.6757011655</v>
+        <v>538977.3541966603</v>
       </c>
       <c r="R12" t="n">
-        <v>6897033.794253739</v>
+        <v>6897012.069211906</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1968,7 +1948,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>15:47</t>
+          <t>15:41</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1978,7 +1958,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>15:47</t>
+          <t>15:41</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2005,10 +1985,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>107569748</v>
+        <v>1944815</v>
       </c>
       <c r="B13" t="n">
-        <v>78569</v>
+        <v>78568</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2041,17 +2021,17 @@
       <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Brassberget, Hls</t>
+          <t>Öster Brassberget, mellan kraftledningar (väst om Bergtjärn)., Hls</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>538977.3541966603</v>
+        <v>539106.742630115</v>
       </c>
       <c r="R13" t="n">
-        <v>6897012.069211906</v>
+        <v>6896898.74913759</v>
       </c>
       <c r="S13" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2075,22 +2055,22 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2023-03-23</t>
+          <t>2009-09-02</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>15:41</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2023-03-23</t>
+          <t>2009-09-02</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>15:41</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2101,23 +2081,37 @@
       </c>
       <c r="AG13" t="b">
         <v>0</v>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>Fint lövbrännebestånd</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>Två sälgar, rikligt med lunglav</t>
+        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Lars-Ove Wikars</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Aron Dynesius</t>
-        </is>
-      </c>
-      <c r="AY13" t="inlineStr"/>
+          <t>Lars-Ove Wikars, Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr">
+        <is>
+          <t>Åtgärdsprogram för hotade arter</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>107569756</v>
+        <v>1997233</v>
       </c>
       <c r="B14" t="n">
         <v>78569</v>
@@ -2153,17 +2147,17 @@
       <c r="I14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Brassberget, Hls</t>
+          <t>Brassbergsmyran, Hls</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>539130.1126433859</v>
+        <v>539081.7084854279</v>
       </c>
       <c r="R14" t="n">
-        <v>6896939.160931129</v>
+        <v>6896961.46973133</v>
       </c>
       <c r="S14" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2187,22 +2181,22 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2023-03-23</t>
+          <t>2012-09-26</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2023-03-23</t>
+          <t>2012-09-26</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2213,26 +2207,40 @@
       </c>
       <c r="AG14" t="b">
         <v>0</v>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>Grandominerad men lövrik skog</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>Asp 30-40 cm</t>
+        </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Lars-Ove Wikars</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Aron Dynesius</t>
-        </is>
-      </c>
-      <c r="AY14" t="inlineStr"/>
+          <t>Lars-Ove Wikars</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr">
+        <is>
+          <t>Åtgärdsprogram för hotade arter</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>107569754</v>
+        <v>107569755</v>
       </c>
       <c r="B15" t="n">
-        <v>78569</v>
+        <v>77506</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2245,21 +2253,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2269,10 +2277,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>539102.5395484278</v>
+        <v>539130.1126433859</v>
       </c>
       <c r="R15" t="n">
-        <v>6896978.980878366</v>
+        <v>6896939.160931129</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2304,7 +2312,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>15:36</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2314,7 +2322,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>15:36</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2341,10 +2349,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>107569710</v>
+        <v>107569756</v>
       </c>
       <c r="B16" t="n">
-        <v>56395</v>
+        <v>78569</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2357,42 +2365,34 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Brassberget, Hls</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>539062.7478428842</v>
+        <v>539130.1126433859</v>
       </c>
       <c r="R16" t="n">
-        <v>6896863.232230947</v>
+        <v>6896939.160931129</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2424,7 +2424,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>17:31</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2434,7 +2434,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>17:31</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2461,10 +2461,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>107569749</v>
+        <v>107569754</v>
       </c>
       <c r="B17" t="n">
-        <v>77506</v>
+        <v>78569</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2477,21 +2477,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2501,10 +2501,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>538977.3541966603</v>
+        <v>539102.5395484278</v>
       </c>
       <c r="R17" t="n">
-        <v>6897012.069211906</v>
+        <v>6896978.980878366</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>15:41</t>
+          <t>15:36</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2546,7 +2546,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>15:41</t>
+          <t>15:36</t>
         </is>
       </c>
       <c r="AD17" t="b">

--- a/artfynd/A 18705-2022.xlsx
+++ b/artfynd/A 18705-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1997235</v>
+        <v>1944815</v>
       </c>
       <c r="B2" t="n">
-        <v>78569</v>
+        <v>78568</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -716,17 +716,17 @@
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Brassbergsmyran, Hls</t>
+          <t>Öster Brassberget, mellan kraftledningar (väst om Bergtjärn)., Hls</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>539054.5526221115</v>
+        <v>539106.742630115</v>
       </c>
       <c r="R2" t="n">
-        <v>6896965.355580899</v>
+        <v>6896898.74913759</v>
       </c>
       <c r="S2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2012-09-26</t>
+          <t>2009-09-02</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2012-09-26</t>
+          <t>2009-09-02</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -779,12 +779,12 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>Grandominerad men lövrik skog</t>
+          <t>Fint lövbrännebestånd</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>Sälglåga, fälld nära kraftledningsgata</t>
+          <t>Två sälgar, rikligt med lunglav</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -795,7 +795,7 @@
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Lars-Ove Wikars</t>
+          <t>Lars-Ove Wikars, Bengt Oldhammer</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
@@ -806,10 +806,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2072910</v>
+        <v>1997235</v>
       </c>
       <c r="B3" t="n">
-        <v>78596</v>
+        <v>78569</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -818,25 +818,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -905,7 +905,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>Grandominerad men lövrik skog, intill ledningsgata</t>
+          <t>Grandominerad men lövrik skog</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
@@ -932,10 +932,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1997234</v>
+        <v>2072910</v>
       </c>
       <c r="B4" t="n">
-        <v>78569</v>
+        <v>78596</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -944,25 +944,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>539060.7095074151</v>
+        <v>539054.5526221115</v>
       </c>
       <c r="R4" t="n">
-        <v>6896958.425786681</v>
+        <v>6896965.355580899</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1020,11 +1020,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
-        </is>
-      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
@@ -1036,12 +1031,12 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>Grandominerad men lövrik skog</t>
+          <t>Grandominerad men lövrik skog, intill ledningsgata</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>Sälglåga utan bark</t>
+          <t>Sälglåga, fälld nära kraftledningsgata</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1063,10 +1058,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>258589</v>
+        <v>1997234</v>
       </c>
       <c r="B5" t="n">
-        <v>89952</v>
+        <v>78569</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1075,42 +1070,38 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>760</v>
+        <v>6458</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Brassbergsmyran, Hls</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>538948.1891960427</v>
+        <v>539060.7095074151</v>
       </c>
       <c r="R5" t="n">
-        <v>6897028.067720329</v>
+        <v>6896958.425786681</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1155,6 +1146,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
+        </is>
+      </c>
       <c r="AD5" t="b">
         <v>0</v>
       </c>
@@ -1166,12 +1162,12 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>Grandominerad skog med klen asp</t>
+          <t>Grandominerad men lövrik skog</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>Sälg 15 cm</t>
+          <t>Sälglåga utan bark</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1193,7 +1189,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>107569746</v>
+        <v>1997233</v>
       </c>
       <c r="B6" t="n">
         <v>78569</v>
@@ -1229,17 +1225,17 @@
       <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Brassberget, Hls</t>
+          <t>Brassbergsmyran, Hls</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>538923.8166075038</v>
+        <v>539081.7084854279</v>
       </c>
       <c r="R6" t="n">
-        <v>6897033.853634592</v>
+        <v>6896961.46973133</v>
       </c>
       <c r="S6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1263,22 +1259,22 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2023-03-23</t>
+          <t>2012-09-26</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>15:46</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2023-03-23</t>
+          <t>2012-09-26</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>15:46</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1289,23 +1285,37 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>Grandominerad men lövrik skog</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>Asp 30-40 cm</t>
+        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Lars-Ove Wikars</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Aron Dynesius</t>
-        </is>
-      </c>
-      <c r="AY6" t="inlineStr"/>
+          <t>Lars-Ove Wikars</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t>Åtgärdsprogram för hotade arter</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>107569747</v>
+        <v>258589</v>
       </c>
       <c r="B7" t="n">
         <v>89952</v>
@@ -1338,20 +1348,24 @@
           <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Brassberget, Hls</t>
+          <t>Brassbergsmyran, Hls</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>538943.8211877134</v>
+        <v>538948.1891960427</v>
       </c>
       <c r="R7" t="n">
-        <v>6897042.019234723</v>
+        <v>6897028.067720329</v>
       </c>
       <c r="S7" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1375,22 +1389,22 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2023-03-23</t>
+          <t>2012-09-26</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>15:44</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2023-03-23</t>
+          <t>2012-09-26</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>15:44</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1401,26 +1415,40 @@
       </c>
       <c r="AG7" t="b">
         <v>0</v>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>Grandominerad skog med klen asp</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>Sälg 15 cm</t>
+        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Lars-Ove Wikars</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Aron Dynesius</t>
-        </is>
-      </c>
-      <c r="AY7" t="inlineStr"/>
+          <t>Lars-Ove Wikars</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr">
+        <is>
+          <t>Åtgärdsprogram för hotade arter</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>107569739</v>
+        <v>107569746</v>
       </c>
       <c r="B8" t="n">
-        <v>78503</v>
+        <v>78569</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1429,25 +1457,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6456</v>
+        <v>6458</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1457,10 +1485,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>538791.4637094707</v>
+        <v>538923.8166075038</v>
       </c>
       <c r="R8" t="n">
-        <v>6897080.867268534</v>
+        <v>6897033.853634592</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1492,7 +1520,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:46</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1502,7 +1530,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:46</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1529,10 +1557,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>107569745</v>
+        <v>107569747</v>
       </c>
       <c r="B9" t="n">
-        <v>78569</v>
+        <v>89952</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1541,25 +1569,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6458</v>
+        <v>760</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1569,10 +1597,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>538918.6757011655</v>
+        <v>538943.8211877134</v>
       </c>
       <c r="R9" t="n">
-        <v>6897033.794253739</v>
+        <v>6897042.019234723</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1604,7 +1632,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>15:47</t>
+          <t>15:44</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1614,7 +1642,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>15:47</t>
+          <t>15:44</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1641,10 +1669,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>107569748</v>
+        <v>107569755</v>
       </c>
       <c r="B10" t="n">
-        <v>78569</v>
+        <v>77506</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1657,21 +1685,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1681,10 +1709,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>538977.3541966603</v>
+        <v>539130.1126433859</v>
       </c>
       <c r="R10" t="n">
-        <v>6897012.069211906</v>
+        <v>6896939.160931129</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1716,7 +1744,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>15:41</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1726,7 +1754,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>15:41</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1753,10 +1781,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>107569710</v>
+        <v>107569739</v>
       </c>
       <c r="B11" t="n">
-        <v>56395</v>
+        <v>78503</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1765,46 +1793,38 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>6456</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Brassberget, Hls</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>539062.7478428842</v>
+        <v>538791.4637094707</v>
       </c>
       <c r="R11" t="n">
-        <v>6896863.232230947</v>
+        <v>6897080.867268534</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1836,7 +1856,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>17:31</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1846,7 +1866,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>17:31</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1873,10 +1893,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>107569749</v>
+        <v>107569745</v>
       </c>
       <c r="B12" t="n">
-        <v>77506</v>
+        <v>78569</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1889,21 +1909,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1913,10 +1933,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>538977.3541966603</v>
+        <v>538918.6757011655</v>
       </c>
       <c r="R12" t="n">
-        <v>6897012.069211906</v>
+        <v>6897033.794253739</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1948,7 +1968,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>15:41</t>
+          <t>15:47</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1958,7 +1978,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>15:41</t>
+          <t>15:47</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1985,10 +2005,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1944815</v>
+        <v>107569748</v>
       </c>
       <c r="B13" t="n">
-        <v>78568</v>
+        <v>78569</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2021,17 +2041,17 @@
       <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Öster Brassberget, mellan kraftledningar (väst om Bergtjärn)., Hls</t>
+          <t>Brassberget, Hls</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>539106.742630115</v>
+        <v>538977.3541966603</v>
       </c>
       <c r="R13" t="n">
-        <v>6896898.74913759</v>
+        <v>6897012.069211906</v>
       </c>
       <c r="S13" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2055,22 +2075,22 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2009-09-02</t>
+          <t>2023-03-23</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:41</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2009-09-02</t>
+          <t>2023-03-23</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:41</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2081,37 +2101,23 @@
       </c>
       <c r="AG13" t="b">
         <v>0</v>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>Fint lövbrännebestånd</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>Två sälgar, rikligt med lunglav</t>
-        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Lars-Ove Wikars</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Lars-Ove Wikars, Bengt Oldhammer</t>
-        </is>
-      </c>
-      <c r="AY13" t="inlineStr">
-        <is>
-          <t>Åtgärdsprogram för hotade arter</t>
-        </is>
-      </c>
+          <t>Isak Vahlström, Aron Dynesius</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1997233</v>
+        <v>107569756</v>
       </c>
       <c r="B14" t="n">
         <v>78569</v>
@@ -2147,17 +2153,17 @@
       <c r="I14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Brassbergsmyran, Hls</t>
+          <t>Brassberget, Hls</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>539081.7084854279</v>
+        <v>539130.1126433859</v>
       </c>
       <c r="R14" t="n">
-        <v>6896961.46973133</v>
+        <v>6896939.160931129</v>
       </c>
       <c r="S14" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2181,22 +2187,22 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2012-09-26</t>
+          <t>2023-03-23</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2012-09-26</t>
+          <t>2023-03-23</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2207,40 +2213,26 @@
       </c>
       <c r="AG14" t="b">
         <v>0</v>
-      </c>
-      <c r="AI14" t="inlineStr">
-        <is>
-          <t>Grandominerad men lövrik skog</t>
-        </is>
-      </c>
-      <c r="AO14" t="inlineStr">
-        <is>
-          <t>Asp 30-40 cm</t>
-        </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Lars-Ove Wikars</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Lars-Ove Wikars</t>
-        </is>
-      </c>
-      <c r="AY14" t="inlineStr">
-        <is>
-          <t>Åtgärdsprogram för hotade arter</t>
-        </is>
-      </c>
+          <t>Isak Vahlström, Aron Dynesius</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>107569755</v>
+        <v>107569754</v>
       </c>
       <c r="B15" t="n">
-        <v>77506</v>
+        <v>78569</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2253,21 +2245,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2277,10 +2269,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>539130.1126433859</v>
+        <v>539102.5395484278</v>
       </c>
       <c r="R15" t="n">
-        <v>6896939.160931129</v>
+        <v>6896978.980878366</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2312,7 +2304,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>15:36</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2322,7 +2314,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>15:36</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2349,10 +2341,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>107569756</v>
+        <v>107569710</v>
       </c>
       <c r="B16" t="n">
-        <v>78569</v>
+        <v>56395</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2365,34 +2357,42 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Brassberget, Hls</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>539130.1126433859</v>
+        <v>539062.7478428842</v>
       </c>
       <c r="R16" t="n">
-        <v>6896939.160931129</v>
+        <v>6896863.232230947</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2424,7 +2424,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>17:31</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2434,7 +2434,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>17:31</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2461,10 +2461,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>107569754</v>
+        <v>107569749</v>
       </c>
       <c r="B17" t="n">
-        <v>78569</v>
+        <v>77506</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2477,21 +2477,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2501,10 +2501,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>539102.5395484278</v>
+        <v>538977.3541966603</v>
       </c>
       <c r="R17" t="n">
-        <v>6896978.980878366</v>
+        <v>6897012.069211906</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>15:36</t>
+          <t>15:41</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2546,7 +2546,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>15:36</t>
+          <t>15:41</t>
         </is>
       </c>
       <c r="AD17" t="b">
